--- a/ApiList.xlsx
+++ b/ApiList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>List of supported API's</t>
   </si>
@@ -131,6 +131,142 @@
   </si>
   <si>
     <t>Payload</t>
+  </si>
+  <si>
+    <t>Messages</t>
+  </si>
+  <si>
+    <t>to get all messages</t>
+  </si>
+  <si>
+    <t>http://{EndPointUrl}/MessengerAPI/webapi/messages</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "author": "Author1",
+        "created": "2019-01-04T14:25:53.21+05:30",
+        "id": 1,
+        "links": [],
+        "message": "Message1"
+    },
+    {
+        "author": "Author2",
+        "created": "2019-01-04T14:25:53.21+05:30",
+        "id": 2,
+        "links": [],
+        "message": "Message2"
+    }
+]</t>
+  </si>
+  <si>
+    <t>to get single message</t>
+  </si>
+  <si>
+    <t>http://{EndPointUrl}/MessengerAPI/webapi/messages/{messageId}</t>
+  </si>
+  <si>
+    <t>{
+    "author": "Author1",
+    "created": "2019-01-04T14:27:20.77+05:30",
+    "id": 1,
+    "links": [
+        {
+            "link": "http://localhost:8080/MessengerAPI/webapi/messages/1",
+            "rel": "self"
+        },
+        {
+            "link": "http://localhost:8080/MessengerAPI/webapi/messages/1/comments/",
+            "rel": "comment"
+        }
+    ],
+    "message": "Message1"
+}</t>
+  </si>
+  <si>
+    <t>http://{EndPointUrl}/MessengerAPI/webapi/messages?year={value}</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "author": "Author1",
+        "created": "2019-01-04T14:28:15.812+05:30",
+        "id": 1,
+        "links": [],
+        "message": "Message1"
+    },
+    {
+        "author": "Author2",
+        "created": "2019-01-04T14:28:15.812+05:30",
+        "id": 2,
+        "links": [],
+        "message": "Message2"
+    }
+]</t>
+  </si>
+  <si>
+    <t>to filter messages by year</t>
+  </si>
+  <si>
+    <t>to filter messages page wise</t>
+  </si>
+  <si>
+    <t>http://{EndPointUrl}/MessengerAPI/webapi/messages?start={index}&amp;size={index}</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "author": "Author2",
+        "created": "2019-01-04T14:31:36.108+05:30",
+        "id": 2,
+        "links": [],
+        "message": "Message2"
+    }
+]</t>
+  </si>
+  <si>
+    <t>to add message</t>
+  </si>
+  <si>
+    <t>{
+    "author": "Author3",
+    "message": "Message3"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "author": "Author3",
+    "created": "2019-01-04T14:34:04.188+05:30",
+    "id": 3,
+    "links": [],
+    "message": "Message3"
+}</t>
+  </si>
+  <si>
+    <t>to update a message</t>
+  </si>
+  <si>
+    <t>{
+    "author": "Author3",
+    "message": "Message4"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "author": "Author3",
+    "id": 3,
+    "links": [],
+    "message": "Message4"
+}</t>
+  </si>
+  <si>
+    <t>to delete a message</t>
+  </si>
+  <si>
+    <t>to get all comments of a message</t>
+  </si>
+  <si>
+    <t>http://{EndPointUrl}/MessengerAPI/webapi/messages/{messageId}/comments/</t>
   </si>
 </sst>
 </file>
@@ -237,7 +373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -260,6 +396,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -268,7 +499,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -276,31 +507,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -613,209 +892,319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="74.7109375" style="2" customWidth="1"/>
     <col min="5" max="6" width="52.140625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="240" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="5"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="5"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="5"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="5"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="5"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="5"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="5"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="5"/>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="5"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="5"/>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="5"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="5"/>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="5"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="5"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="5"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="5"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="5"/>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="1"/>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
@@ -835,10 +1224,14 @@
     <row r="39" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
     </row>
+    <row r="40" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
